--- a/data/impute.xlsx
+++ b/data/impute.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenyuli/Desktop/co2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lwyri\OneDrive\Documents\Github\Cyano-TL\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4860EFCE-EF6F-3F42-88C9-309DFBCD9BDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3112A00D-CC58-486D-BEEE-ED741D72713C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="29920" windowHeight="17220" xr2:uid="{2865B9B0-1CFA-7E4C-AA6B-3CAE2D0E1A90}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2865B9B0-1CFA-7E4C-AA6B-3CAE2D0E1A90}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="51">
   <si>
     <t>temperature</t>
   </si>
@@ -180,17 +180,29 @@
   </si>
   <si>
     <t>product permnability</t>
+  </si>
+  <si>
+    <t>ko genes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ox genes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>na as a category</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -198,6 +210,13 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -557,13 +576,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A03E615-1335-3341-9247-2F28D1DA836F}">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
@@ -578,7 +597,7 @@
         <v>46</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -922,6 +941,22 @@
         <v>47</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>30</v>
       </c>
     </row>
@@ -929,6 +964,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B44">
     <sortCondition ref="A1:A44"/>
   </sortState>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>